--- a/data/trans_dic/P25C$pormicuenta_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25C$pormicuenta_2023-Estudios-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.9037340807913693</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9401115760921001</v>
+        <v>0.9401115760920999</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9114036324657143</v>
+        <v>0.9114036324657144</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8529631499620806</v>
+        <v>0.8554382269617952</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.866614534580058</v>
+        <v>0.864562089589613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.869629929619878</v>
+        <v>0.8693153452868529</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.937960255866426</v>
+        <v>0.9387486721322957</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9778987544136432</v>
+        <v>0.9764111269577648</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9405927512347335</v>
+        <v>0.9407604014079776</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.9045101342166388</v>
+        <v>0.904510134216639</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.9065611169362287</v>
+        <v>0.9065611169362285</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9053315551533593</v>
+        <v>0.9053315551533594</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8624315524491936</v>
+        <v>0.8663729292415484</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8699872487975787</v>
+        <v>0.8687578743356423</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8804730350664901</v>
+        <v>0.8820410216690261</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9333412493198945</v>
+        <v>0.9326341779211581</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9333046459886766</v>
+        <v>0.9342650039746226</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9263660101495705</v>
+        <v>0.9287706216520328</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.859699852513909</v>
+        <v>0.8596998525139089</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8790514892140278</v>
+        <v>0.8790514892140276</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8672724458033471</v>
+        <v>0.8672724458033472</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7894995386499916</v>
+        <v>0.7860808942772376</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.818863222103011</v>
+        <v>0.8107219641020074</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.818459162008592</v>
+        <v>0.8164751183173895</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9158030303332838</v>
+        <v>0.914255794200315</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9275130079981375</v>
+        <v>0.9250389340215076</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.907105600258071</v>
+        <v>0.9055334066295125</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8941656315462466</v>
+        <v>0.8941656315462465</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9036797450579286</v>
+        <v>0.9036797450579288</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.897561131098519</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.867700417245534</v>
+        <v>0.8689563399837839</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8775627343638501</v>
+        <v>0.8731390789249728</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8775864607745775</v>
+        <v>0.8775370636694101</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9166907649155561</v>
+        <v>0.9180669270764654</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9267113661188281</v>
+        <v>0.9261656644357902</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.912960712760476</v>
+        <v>0.9138150767247132</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>150223</v>
+        <v>150659</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>40776</v>
+        <v>40679</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>194076</v>
+        <v>194006</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>165193</v>
+        <v>165331</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>46012</v>
+        <v>45942</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>209913</v>
+        <v>209950</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>286750</v>
+        <v>288060</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>193244</v>
+        <v>192971</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>488322</v>
+        <v>489191</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>310327</v>
+        <v>310092</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>207308</v>
+        <v>207522</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>513775</v>
+        <v>515108</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>117388</v>
+        <v>116880</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>78274</v>
+        <v>77496</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>199931</v>
+        <v>199446</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>136168</v>
+        <v>135938</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>88660</v>
+        <v>88424</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>221585</v>
+        <v>221201</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>570337</v>
+        <v>571162</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>320103</v>
+        <v>318490</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>896947</v>
+        <v>896896</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>602538</v>
+        <v>603443</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>338031</v>
+        <v>337832</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>933102</v>
+        <v>933975</v>
       </c>
     </row>
     <row r="20">
